--- a/data_process/seal_attribute.xlsx
+++ b/data_process/seal_attribute.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DataVis\vis_system\seal_visualization\data_process\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F8A0F0-85C8-4C95-BE72-FA97E316A3E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="18140" windowHeight="11480"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17920" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +28,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Comic Sans MS"/>
-        <charset val="134"/>
+        <family val="4"/>
       </rPr>
       <t>index</t>
     </r>
@@ -34,7 +40,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Comic Sans MS"/>
-        <charset val="134"/>
+        <family val="4"/>
       </rPr>
       <t>seal_name</t>
     </r>
@@ -46,7 +52,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Comic Sans MS"/>
-        <charset val="134"/>
+        <family val="4"/>
       </rPr>
       <t>seal_owner</t>
     </r>
@@ -58,7 +64,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Comic Sans MS"/>
-        <charset val="134"/>
+        <family val="4"/>
       </rPr>
       <t>x</t>
     </r>
@@ -70,7 +76,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Comic Sans MS"/>
-        <charset val="134"/>
+        <family val="4"/>
       </rPr>
       <t>x_right</t>
     </r>
@@ -82,7 +88,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Comic Sans MS"/>
-        <charset val="134"/>
+        <family val="4"/>
       </rPr>
       <t>y</t>
     </r>
@@ -94,7 +100,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Comic Sans MS"/>
-        <charset val="134"/>
+        <family val="4"/>
       </rPr>
       <t>width</t>
     </r>
@@ -106,7 +112,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Comic Sans MS"/>
-        <charset val="134"/>
+        <family val="4"/>
       </rPr>
       <t>height</t>
     </r>
@@ -816,7 +822,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>文壽承氏</t>
+      <t>文彭</t>
     </r>
   </si>
   <si>
@@ -828,7 +834,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>文彭</t>
+      <t>墨林山人</t>
     </r>
   </si>
   <si>
@@ -840,7 +846,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>墨林山人</t>
+      <t>退密</t>
     </r>
   </si>
   <si>
@@ -852,7 +858,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>退密</t>
+      <t>桃花源裡人家</t>
     </r>
   </si>
   <si>
@@ -864,7 +870,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>桃花源裡人家</t>
+      <t>郑板桥</t>
     </r>
   </si>
   <si>
@@ -876,7 +882,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>痴絕</t>
+      <t>子孫世昌</t>
     </r>
   </si>
   <si>
@@ -888,7 +894,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>郑板桥</t>
+      <t>中岳山人</t>
     </r>
   </si>
   <si>
@@ -900,7 +906,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>子孫世昌</t>
+      <t>白氏收藏图书</t>
     </r>
   </si>
   <si>
@@ -912,7 +918,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>中岳山人</t>
+      <t>元汴之印</t>
     </r>
   </si>
   <si>
@@ -924,7 +930,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>白氏收藏图书</t>
+      <t>三桥居士</t>
     </r>
   </si>
   <si>
@@ -936,7 +942,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>元汴之印</t>
+      <t>墨林子</t>
     </r>
   </si>
   <si>
@@ -948,7 +954,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>三桥居士</t>
+      <t>蒼巖子</t>
     </r>
   </si>
   <si>
@@ -960,7 +966,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>墨林子</t>
+      <t>蕉林鑒定</t>
     </r>
   </si>
   <si>
@@ -972,7 +978,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>平生真賞</t>
+      <t>蕉林秘玩</t>
     </r>
   </si>
   <si>
@@ -984,7 +990,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>蒼巖子</t>
+      <t>天籟閣</t>
     </r>
   </si>
   <si>
@@ -996,7 +1002,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>蕉林鑒定</t>
+      <t>子孫永保</t>
     </r>
   </si>
   <si>
@@ -1008,7 +1014,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>蕉林秘玩</t>
+      <t>项墨林父祕笈之印</t>
     </r>
   </si>
   <si>
@@ -1020,7 +1026,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>天籟閣</t>
+      <t>项子京家珍藏</t>
     </r>
   </si>
   <si>
@@ -1032,7 +1038,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>子孫永保</t>
+      <t>项墨林印</t>
     </r>
   </si>
   <si>
@@ -1044,7 +1050,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>项墨林父祕笈之印</t>
+      <t>寄傲</t>
     </r>
   </si>
   <si>
@@ -1056,7 +1062,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>项子京家珍藏</t>
+      <t>项叔子</t>
     </r>
   </si>
   <si>
@@ -1068,7 +1074,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>项墨林印</t>
+      <t>文寿承氏</t>
     </r>
   </si>
   <si>
@@ -1080,7 +1086,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>寄傲</t>
+      <t>文彭之印</t>
     </r>
   </si>
   <si>
@@ -1092,7 +1098,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>项叔子</t>
+      <t>楞</t>
     </r>
   </si>
   <si>
@@ -1104,7 +1110,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>文寿承氏</t>
+      <t>伽</t>
     </r>
   </si>
   <si>
@@ -1116,7 +1122,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>文彭之印</t>
+      <t>一粟斋</t>
     </r>
   </si>
   <si>
@@ -1128,7 +1134,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>楞</t>
+      <t>陆质雅</t>
     </r>
   </si>
   <si>
@@ -1140,7 +1146,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>伽</t>
+      <t>董其昌印</t>
     </r>
   </si>
   <si>
@@ -1152,7 +1158,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>一粟斋</t>
+      <t>董其昌</t>
     </r>
   </si>
   <si>
@@ -1164,7 +1170,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>陆质雅</t>
+      <t>成子容若</t>
     </r>
   </si>
   <si>
@@ -1176,7 +1182,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>董其昌印</t>
+      <t>痴绝</t>
     </r>
   </si>
   <si>
@@ -1188,7 +1194,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>董其昌</t>
+      <t>南阳</t>
     </r>
   </si>
   <si>
@@ -1200,7 +1206,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>成子容若</t>
+      <t>张南阳</t>
     </r>
   </si>
   <si>
@@ -1212,7 +1218,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>痴绝</t>
+      <t>昌</t>
     </r>
   </si>
   <si>
@@ -1224,7 +1230,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>南阳</t>
+      <t>宗伯学士</t>
     </r>
   </si>
   <si>
@@ -1236,7 +1242,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>张南阳</t>
+      <t>锺山之英</t>
     </r>
   </si>
   <si>
@@ -1248,7 +1254,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>昌</t>
+      <t>布衣躬耕</t>
     </r>
   </si>
   <si>
@@ -1260,7 +1266,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>宗伯学士</t>
+      <t>香界</t>
     </r>
   </si>
   <si>
@@ -1272,7 +1278,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>锺山之英</t>
+      <t>花间草堂</t>
     </r>
   </si>
   <si>
@@ -1284,7 +1290,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>布衣躬耕</t>
+      <t>冶溪漁隱</t>
     </r>
   </si>
   <si>
@@ -1296,7 +1302,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>香界</t>
+      <t>曹溶之印</t>
     </r>
   </si>
   <si>
@@ -1308,7 +1314,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>花间草堂</t>
+      <t>曹溶</t>
     </r>
   </si>
   <si>
@@ -1320,7 +1326,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>冶溪漁隱</t>
+      <t>鉴躬</t>
     </r>
   </si>
   <si>
@@ -1332,57 +1338,24 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>曹溶之印</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>曹溶</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>鉴躬</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>芝石室</t>
     </r>
+  </si>
+  <si>
+    <t>痴绝</t>
+  </si>
+  <si>
+    <t>平生真赏</t>
+  </si>
+  <si>
+    <t>文寿承氏</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1395,7 +1368,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Comic Sans MS"/>
-      <charset val="134"/>
+      <family val="4"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1408,348 +1381,24 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Comic Sans MS"/>
-      <charset val="134"/>
+      <family val="4"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1772,251 +1421,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2040,61 +1447,17 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2379,21 +1742,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="28.08984375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" ht="17" spans="1:27">
+    <row r="1" spans="1:27" ht="17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2438,7 +1804,7 @@
       <c r="Z1" s="5"/>
       <c r="AA1" s="5"/>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -2483,7 +1849,7 @@
       <c r="Z2" s="6"/>
       <c r="AA2" s="6"/>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -2528,7 +1894,7 @@
       <c r="Z3" s="6"/>
       <c r="AA3" s="6"/>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -2573,7 +1939,7 @@
       <c r="Z4" s="6"/>
       <c r="AA4" s="6"/>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -2618,7 +1984,7 @@
       <c r="Z5" s="6"/>
       <c r="AA5" s="6"/>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -2663,7 +2029,7 @@
       <c r="Z6" s="6"/>
       <c r="AA6" s="6"/>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -2708,7 +2074,7 @@
       <c r="Z7" s="6"/>
       <c r="AA7" s="6"/>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -2753,7 +2119,7 @@
       <c r="Z8" s="6"/>
       <c r="AA8" s="6"/>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -2798,7 +2164,7 @@
       <c r="Z9" s="6"/>
       <c r="AA9" s="6"/>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -2843,7 +2209,7 @@
       <c r="Z10" s="6"/>
       <c r="AA10" s="6"/>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -2888,7 +2254,7 @@
       <c r="Z11" s="6"/>
       <c r="AA11" s="6"/>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -2933,7 +2299,7 @@
       <c r="Z12" s="6"/>
       <c r="AA12" s="6"/>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -2978,7 +2344,7 @@
       <c r="Z13" s="6"/>
       <c r="AA13" s="6"/>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -3023,7 +2389,7 @@
       <c r="Z14" s="6"/>
       <c r="AA14" s="6"/>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>13</v>
       </c>
@@ -3068,7 +2434,7 @@
       <c r="Z15" s="6"/>
       <c r="AA15" s="6"/>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>14</v>
       </c>
@@ -3113,7 +2479,7 @@
       <c r="Z16" s="6"/>
       <c r="AA16" s="6"/>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>15</v>
       </c>
@@ -3158,7 +2524,7 @@
       <c r="Z17" s="6"/>
       <c r="AA17" s="6"/>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>16</v>
       </c>
@@ -3203,7 +2569,7 @@
       <c r="Z18" s="6"/>
       <c r="AA18" s="6"/>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>17</v>
       </c>
@@ -3248,7 +2614,7 @@
       <c r="Z19" s="6"/>
       <c r="AA19" s="6"/>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>18</v>
       </c>
@@ -3293,7 +2659,7 @@
       <c r="Z20" s="6"/>
       <c r="AA20" s="6"/>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>19</v>
       </c>
@@ -3338,7 +2704,7 @@
       <c r="Z21" s="6"/>
       <c r="AA21" s="6"/>
     </row>
-    <row r="22" spans="1:27">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>20</v>
       </c>
@@ -3383,7 +2749,7 @@
       <c r="Z22" s="6"/>
       <c r="AA22" s="6"/>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>21</v>
       </c>
@@ -3428,7 +2794,7 @@
       <c r="Z23" s="6"/>
       <c r="AA23" s="6"/>
     </row>
-    <row r="24" spans="1:27">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>22</v>
       </c>
@@ -3473,7 +2839,7 @@
       <c r="Z24" s="6"/>
       <c r="AA24" s="6"/>
     </row>
-    <row r="25" spans="1:27">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>23</v>
       </c>
@@ -3518,7 +2884,7 @@
       <c r="Z25" s="6"/>
       <c r="AA25" s="6"/>
     </row>
-    <row r="26" spans="1:27">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>24</v>
       </c>
@@ -3563,7 +2929,7 @@
       <c r="Z26" s="6"/>
       <c r="AA26" s="6"/>
     </row>
-    <row r="27" spans="1:27">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>25</v>
       </c>
@@ -3608,7 +2974,7 @@
       <c r="Z27" s="6"/>
       <c r="AA27" s="6"/>
     </row>
-    <row r="28" spans="1:27">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>26</v>
       </c>
@@ -3653,7 +3019,7 @@
       <c r="Z28" s="6"/>
       <c r="AA28" s="6"/>
     </row>
-    <row r="29" spans="1:27">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>27</v>
       </c>
@@ -3698,7 +3064,7 @@
       <c r="Z29" s="6"/>
       <c r="AA29" s="6"/>
     </row>
-    <row r="30" spans="1:27">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>28</v>
       </c>
@@ -3743,7 +3109,7 @@
       <c r="Z30" s="6"/>
       <c r="AA30" s="6"/>
     </row>
-    <row r="31" spans="1:27">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>29</v>
       </c>
@@ -3788,7 +3154,7 @@
       <c r="Z31" s="6"/>
       <c r="AA31" s="6"/>
     </row>
-    <row r="32" spans="1:27">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>30</v>
       </c>
@@ -3833,7 +3199,7 @@
       <c r="Z32" s="6"/>
       <c r="AA32" s="6"/>
     </row>
-    <row r="33" spans="1:27">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>31</v>
       </c>
@@ -3878,7 +3244,7 @@
       <c r="Z33" s="6"/>
       <c r="AA33" s="6"/>
     </row>
-    <row r="34" spans="1:27">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>32</v>
       </c>
@@ -3923,7 +3289,7 @@
       <c r="Z34" s="6"/>
       <c r="AA34" s="6"/>
     </row>
-    <row r="35" spans="1:27">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>33</v>
       </c>
@@ -3968,7 +3334,7 @@
       <c r="Z35" s="6"/>
       <c r="AA35" s="6"/>
     </row>
-    <row r="36" spans="1:27">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>34</v>
       </c>
@@ -4013,7 +3379,7 @@
       <c r="Z36" s="6"/>
       <c r="AA36" s="6"/>
     </row>
-    <row r="37" spans="1:27">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>35</v>
       </c>
@@ -4058,7 +3424,7 @@
       <c r="Z37" s="6"/>
       <c r="AA37" s="6"/>
     </row>
-    <row r="38" spans="1:27">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>36</v>
       </c>
@@ -4103,7 +3469,7 @@
       <c r="Z38" s="6"/>
       <c r="AA38" s="6"/>
     </row>
-    <row r="39" spans="1:27">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>37</v>
       </c>
@@ -4148,7 +3514,7 @@
       <c r="Z39" s="6"/>
       <c r="AA39" s="6"/>
     </row>
-    <row r="40" spans="1:27">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>38</v>
       </c>
@@ -4193,7 +3559,7 @@
       <c r="Z40" s="6"/>
       <c r="AA40" s="6"/>
     </row>
-    <row r="41" spans="1:27">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>39</v>
       </c>
@@ -4238,7 +3604,7 @@
       <c r="Z41" s="6"/>
       <c r="AA41" s="6"/>
     </row>
-    <row r="42" spans="1:27">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>40</v>
       </c>
@@ -4283,7 +3649,7 @@
       <c r="Z42" s="6"/>
       <c r="AA42" s="6"/>
     </row>
-    <row r="43" spans="1:27">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>41</v>
       </c>
@@ -4328,7 +3694,7 @@
       <c r="Z43" s="6"/>
       <c r="AA43" s="6"/>
     </row>
-    <row r="44" spans="1:27">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>42</v>
       </c>
@@ -4373,7 +3739,7 @@
       <c r="Z44" s="6"/>
       <c r="AA44" s="6"/>
     </row>
-    <row r="45" spans="1:27">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>43</v>
       </c>
@@ -4418,7 +3784,7 @@
       <c r="Z45" s="6"/>
       <c r="AA45" s="6"/>
     </row>
-    <row r="46" spans="1:27">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>44</v>
       </c>
@@ -4463,7 +3829,7 @@
       <c r="Z46" s="6"/>
       <c r="AA46" s="6"/>
     </row>
-    <row r="47" spans="1:27">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>45</v>
       </c>
@@ -4508,7 +3874,7 @@
       <c r="Z47" s="6"/>
       <c r="AA47" s="6"/>
     </row>
-    <row r="48" spans="1:27">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>46</v>
       </c>
@@ -4553,7 +3919,7 @@
       <c r="Z48" s="6"/>
       <c r="AA48" s="6"/>
     </row>
-    <row r="49" spans="1:27">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>47</v>
       </c>
@@ -4598,7 +3964,7 @@
       <c r="Z49" s="6"/>
       <c r="AA49" s="6"/>
     </row>
-    <row r="50" spans="1:27">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>48</v>
       </c>
@@ -4643,7 +4009,7 @@
       <c r="Z50" s="6"/>
       <c r="AA50" s="6"/>
     </row>
-    <row r="51" spans="1:27">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>49</v>
       </c>
@@ -4688,7 +4054,7 @@
       <c r="Z51" s="6"/>
       <c r="AA51" s="6"/>
     </row>
-    <row r="52" spans="1:27">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>50</v>
       </c>
@@ -4733,7 +4099,7 @@
       <c r="Z52" s="6"/>
       <c r="AA52" s="6"/>
     </row>
-    <row r="53" spans="1:27">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>51</v>
       </c>
@@ -4778,7 +4144,7 @@
       <c r="Z53" s="6"/>
       <c r="AA53" s="6"/>
     </row>
-    <row r="54" spans="1:27">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>52</v>
       </c>
@@ -4823,7 +4189,7 @@
       <c r="Z54" s="6"/>
       <c r="AA54" s="6"/>
     </row>
-    <row r="55" spans="1:27">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>53</v>
       </c>
@@ -4868,7 +4234,7 @@
       <c r="Z55" s="6"/>
       <c r="AA55" s="6"/>
     </row>
-    <row r="56" spans="1:27">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>54</v>
       </c>
@@ -4913,7 +4279,7 @@
       <c r="Z56" s="6"/>
       <c r="AA56" s="6"/>
     </row>
-    <row r="57" spans="1:27">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>55</v>
       </c>
@@ -4958,7 +4324,7 @@
       <c r="Z57" s="6"/>
       <c r="AA57" s="6"/>
     </row>
-    <row r="58" spans="1:27">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>56</v>
       </c>
@@ -5003,7 +4369,7 @@
       <c r="Z58" s="6"/>
       <c r="AA58" s="6"/>
     </row>
-    <row r="59" spans="1:27">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>57</v>
       </c>
@@ -5048,7 +4414,7 @@
       <c r="Z59" s="6"/>
       <c r="AA59" s="6"/>
     </row>
-    <row r="60" spans="1:27">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>58</v>
       </c>
@@ -5093,7 +4459,7 @@
       <c r="Z60" s="6"/>
       <c r="AA60" s="6"/>
     </row>
-    <row r="61" spans="1:27">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>59</v>
       </c>
@@ -5138,7 +4504,7 @@
       <c r="Z61" s="6"/>
       <c r="AA61" s="6"/>
     </row>
-    <row r="62" spans="1:27">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>60</v>
       </c>
@@ -5183,7 +4549,7 @@
       <c r="Z62" s="6"/>
       <c r="AA62" s="6"/>
     </row>
-    <row r="63" spans="1:27">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>61</v>
       </c>
@@ -5228,7 +4594,7 @@
       <c r="Z63" s="6"/>
       <c r="AA63" s="6"/>
     </row>
-    <row r="64" spans="1:27">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>62</v>
       </c>
@@ -5273,7 +4639,7 @@
       <c r="Z64" s="6"/>
       <c r="AA64" s="6"/>
     </row>
-    <row r="65" spans="1:27">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>63</v>
       </c>
@@ -5318,7 +4684,7 @@
       <c r="Z65" s="6"/>
       <c r="AA65" s="6"/>
     </row>
-    <row r="66" spans="1:27">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>64</v>
       </c>
@@ -5363,7 +4729,7 @@
       <c r="Z66" s="6"/>
       <c r="AA66" s="6"/>
     </row>
-    <row r="67" spans="1:27">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>65</v>
       </c>
@@ -5408,7 +4774,7 @@
       <c r="Z67" s="6"/>
       <c r="AA67" s="6"/>
     </row>
-    <row r="68" spans="1:27">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>66</v>
       </c>
@@ -5453,7 +4819,7 @@
       <c r="Z68" s="6"/>
       <c r="AA68" s="6"/>
     </row>
-    <row r="69" spans="1:27">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>67</v>
       </c>
@@ -5498,7 +4864,7 @@
       <c r="Z69" s="6"/>
       <c r="AA69" s="6"/>
     </row>
-    <row r="70" spans="1:27">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>68</v>
       </c>
@@ -5543,7 +4909,7 @@
       <c r="Z70" s="6"/>
       <c r="AA70" s="6"/>
     </row>
-    <row r="71" spans="1:27">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>69</v>
       </c>
@@ -5588,7 +4954,7 @@
       <c r="Z71" s="6"/>
       <c r="AA71" s="6"/>
     </row>
-    <row r="72" spans="1:27">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>70</v>
       </c>
@@ -5633,7 +4999,7 @@
       <c r="Z72" s="6"/>
       <c r="AA72" s="6"/>
     </row>
-    <row r="73" spans="1:27">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>71</v>
       </c>
@@ -5678,7 +5044,7 @@
       <c r="Z73" s="6"/>
       <c r="AA73" s="6"/>
     </row>
-    <row r="74" spans="1:27">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>72</v>
       </c>
@@ -5723,7 +5089,7 @@
       <c r="Z74" s="6"/>
       <c r="AA74" s="6"/>
     </row>
-    <row r="75" spans="1:27">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>73</v>
       </c>
@@ -5768,7 +5134,7 @@
       <c r="Z75" s="6"/>
       <c r="AA75" s="6"/>
     </row>
-    <row r="76" spans="1:27">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>74</v>
       </c>
@@ -5813,7 +5179,7 @@
       <c r="Z76" s="6"/>
       <c r="AA76" s="6"/>
     </row>
-    <row r="77" spans="1:27">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>75</v>
       </c>
@@ -5858,7 +5224,7 @@
       <c r="Z77" s="6"/>
       <c r="AA77" s="6"/>
     </row>
-    <row r="78" spans="1:27">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>76</v>
       </c>
@@ -5903,7 +5269,7 @@
       <c r="Z78" s="6"/>
       <c r="AA78" s="6"/>
     </row>
-    <row r="79" spans="1:27">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>77</v>
       </c>
@@ -5948,7 +5314,7 @@
       <c r="Z79" s="6"/>
       <c r="AA79" s="6"/>
     </row>
-    <row r="80" spans="1:27">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>78</v>
       </c>
@@ -5993,7 +5359,7 @@
       <c r="Z80" s="6"/>
       <c r="AA80" s="6"/>
     </row>
-    <row r="81" spans="1:27">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>79</v>
       </c>
@@ -6038,15 +5404,15 @@
       <c r="Z81" s="6"/>
       <c r="AA81" s="6"/>
     </row>
-    <row r="82" spans="1:27">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>80</v>
       </c>
       <c r="B82" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C82" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="D82" s="4">
         <v>38624</v>
@@ -6083,7 +5449,7 @@
       <c r="Z82" s="6"/>
       <c r="AA82" s="6"/>
     </row>
-    <row r="83" spans="1:27">
+    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>81</v>
       </c>
@@ -6128,12 +5494,12 @@
       <c r="Z83" s="6"/>
       <c r="AA83" s="6"/>
     </row>
-    <row r="84" spans="1:27">
+    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>82</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>21</v>
@@ -6173,7 +5539,7 @@
       <c r="Z84" s="6"/>
       <c r="AA84" s="6"/>
     </row>
-    <row r="85" spans="1:27">
+    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>83</v>
       </c>
@@ -6218,7 +5584,7 @@
       <c r="Z85" s="6"/>
       <c r="AA85" s="6"/>
     </row>
-    <row r="86" spans="1:27">
+    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>84</v>
       </c>
@@ -6263,12 +5629,12 @@
       <c r="Z86" s="6"/>
       <c r="AA86" s="6"/>
     </row>
-    <row r="87" spans="1:27">
+    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>85</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>21</v>
@@ -6308,12 +5674,12 @@
       <c r="Z87" s="6"/>
       <c r="AA87" s="6"/>
     </row>
-    <row r="88" spans="1:27">
+    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>86</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>21</v>
@@ -6353,7 +5719,7 @@
       <c r="Z88" s="6"/>
       <c r="AA88" s="6"/>
     </row>
-    <row r="89" spans="1:27">
+    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>87</v>
       </c>
@@ -6398,15 +5764,15 @@
       <c r="Z89" s="6"/>
       <c r="AA89" s="6"/>
     </row>
-    <row r="90" spans="1:27">
+    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>88</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D90" s="4">
         <v>38232</v>
@@ -6443,12 +5809,12 @@
       <c r="Z90" s="6"/>
       <c r="AA90" s="6"/>
     </row>
-    <row r="91" spans="1:27">
+    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>89</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>21</v>
@@ -6488,12 +5854,12 @@
       <c r="Z91" s="6"/>
       <c r="AA91" s="6"/>
     </row>
-    <row r="92" spans="1:27">
+    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>90</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>13</v>
@@ -6533,12 +5899,12 @@
       <c r="Z92" s="6"/>
       <c r="AA92" s="6"/>
     </row>
-    <row r="93" spans="1:27">
+    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>91</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>11</v>
@@ -6578,12 +5944,12 @@
       <c r="Z93" s="6"/>
       <c r="AA93" s="6"/>
     </row>
-    <row r="94" spans="1:27">
+    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>92</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>21</v>
@@ -6623,15 +5989,15 @@
       <c r="Z94" s="6"/>
       <c r="AA94" s="6"/>
     </row>
-    <row r="95" spans="1:27">
+    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <v>93</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D95" s="4">
         <v>50520</v>
@@ -6668,7 +6034,7 @@
       <c r="Z95" s="6"/>
       <c r="AA95" s="6"/>
     </row>
-    <row r="96" spans="1:27">
+    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>94</v>
       </c>
@@ -6713,12 +6079,12 @@
       <c r="Z96" s="6"/>
       <c r="AA96" s="6"/>
     </row>
-    <row r="97" spans="1:27">
+    <row r="97" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>95</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>21</v>
@@ -6758,12 +6124,12 @@
       <c r="Z97" s="6"/>
       <c r="AA97" s="6"/>
     </row>
-    <row r="98" spans="1:27">
+    <row r="98" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>96</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>21</v>
@@ -6803,7 +6169,7 @@
       <c r="Z98" s="6"/>
       <c r="AA98" s="6"/>
     </row>
-    <row r="99" spans="1:27">
+    <row r="99" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>97</v>
       </c>
@@ -6848,12 +6214,12 @@
       <c r="Z99" s="6"/>
       <c r="AA99" s="6"/>
     </row>
-    <row r="100" spans="1:27">
+    <row r="100" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>98</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>13</v>
@@ -6893,12 +6259,12 @@
       <c r="Z100" s="6"/>
       <c r="AA100" s="6"/>
     </row>
-    <row r="101" spans="1:27">
+    <row r="101" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>99</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>13</v>
@@ -6938,12 +6304,12 @@
       <c r="Z101" s="6"/>
       <c r="AA101" s="6"/>
     </row>
-    <row r="102" spans="1:27">
+    <row r="102" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>100</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>13</v>
@@ -6983,7 +6349,7 @@
       <c r="Z102" s="6"/>
       <c r="AA102" s="6"/>
     </row>
-    <row r="103" spans="1:27">
+    <row r="103" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <v>101</v>
       </c>
@@ -7028,7 +6394,7 @@
       <c r="Z103" s="6"/>
       <c r="AA103" s="6"/>
     </row>
-    <row r="104" spans="1:27">
+    <row r="104" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <v>102</v>
       </c>
@@ -7073,12 +6439,12 @@
       <c r="Z104" s="6"/>
       <c r="AA104" s="6"/>
     </row>
-    <row r="105" spans="1:27">
+    <row r="105" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <v>103</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>21</v>
@@ -7118,7 +6484,7 @@
       <c r="Z105" s="6"/>
       <c r="AA105" s="6"/>
     </row>
-    <row r="106" spans="1:27">
+    <row r="106" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <v>104</v>
       </c>
@@ -7163,7 +6529,7 @@
       <c r="Z106" s="6"/>
       <c r="AA106" s="6"/>
     </row>
-    <row r="107" spans="1:27">
+    <row r="107" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <v>105</v>
       </c>
@@ -7208,12 +6574,12 @@
       <c r="Z107" s="6"/>
       <c r="AA107" s="6"/>
     </row>
-    <row r="108" spans="1:27">
+    <row r="108" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <v>106</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>21</v>
@@ -7253,12 +6619,12 @@
       <c r="Z108" s="6"/>
       <c r="AA108" s="6"/>
     </row>
-    <row r="109" spans="1:27">
+    <row r="109" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <v>107</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>61</v>
@@ -7298,7 +6664,7 @@
       <c r="Z109" s="6"/>
       <c r="AA109" s="6"/>
     </row>
-    <row r="110" spans="1:27">
+    <row r="110" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <v>108</v>
       </c>
@@ -7343,7 +6709,7 @@
       <c r="Z110" s="6"/>
       <c r="AA110" s="6"/>
     </row>
-    <row r="111" spans="1:27">
+    <row r="111" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <v>109</v>
       </c>
@@ -7388,7 +6754,7 @@
       <c r="Z111" s="6"/>
       <c r="AA111" s="6"/>
     </row>
-    <row r="112" spans="1:27">
+    <row r="112" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <v>110</v>
       </c>
@@ -7433,12 +6799,12 @@
       <c r="Z112" s="6"/>
       <c r="AA112" s="6"/>
     </row>
-    <row r="113" spans="1:27">
+    <row r="113" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <v>111</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>21</v>
@@ -7478,7 +6844,7 @@
       <c r="Z113" s="6"/>
       <c r="AA113" s="6"/>
     </row>
-    <row r="114" spans="1:27">
+    <row r="114" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <v>112</v>
       </c>
@@ -7523,7 +6889,7 @@
       <c r="Z114" s="6"/>
       <c r="AA114" s="6"/>
     </row>
-    <row r="115" spans="1:27">
+    <row r="115" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <v>113</v>
       </c>
@@ -7568,12 +6934,12 @@
       <c r="Z115" s="6"/>
       <c r="AA115" s="6"/>
     </row>
-    <row r="116" spans="1:27">
+    <row r="116" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <v>114</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>21</v>
@@ -7613,7 +6979,7 @@
       <c r="Z116" s="6"/>
       <c r="AA116" s="6"/>
     </row>
-    <row r="117" spans="1:27">
+    <row r="117" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <v>115</v>
       </c>
@@ -7658,12 +7024,12 @@
       <c r="Z117" s="6"/>
       <c r="AA117" s="6"/>
     </row>
-    <row r="118" spans="1:27">
+    <row r="118" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <v>116</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>21</v>
@@ -7703,7 +7069,7 @@
       <c r="Z118" s="6"/>
       <c r="AA118" s="6"/>
     </row>
-    <row r="119" spans="1:27">
+    <row r="119" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <v>117</v>
       </c>
@@ -7748,12 +7114,12 @@
       <c r="Z119" s="6"/>
       <c r="AA119" s="6"/>
     </row>
-    <row r="120" spans="1:27">
+    <row r="120" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
         <v>118</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>21</v>
@@ -7793,7 +7159,7 @@
       <c r="Z120" s="6"/>
       <c r="AA120" s="6"/>
     </row>
-    <row r="121" spans="1:27">
+    <row r="121" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
         <v>119</v>
       </c>
@@ -7838,12 +7204,12 @@
       <c r="Z121" s="6"/>
       <c r="AA121" s="6"/>
     </row>
-    <row r="122" spans="1:27">
+    <row r="122" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
         <v>120</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>21</v>
@@ -7883,12 +7249,12 @@
       <c r="Z122" s="6"/>
       <c r="AA122" s="6"/>
     </row>
-    <row r="123" spans="1:27">
+    <row r="123" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
         <v>121</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>21</v>
@@ -7928,7 +7294,7 @@
       <c r="Z123" s="6"/>
       <c r="AA123" s="6"/>
     </row>
-    <row r="124" spans="1:27">
+    <row r="124" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
         <v>122</v>
       </c>
@@ -7973,7 +7339,7 @@
       <c r="Z124" s="6"/>
       <c r="AA124" s="6"/>
     </row>
-    <row r="125" spans="1:27">
+    <row r="125" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <v>123</v>
       </c>
@@ -8018,7 +7384,7 @@
       <c r="Z125" s="6"/>
       <c r="AA125" s="6"/>
     </row>
-    <row r="126" spans="1:27">
+    <row r="126" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
         <v>124</v>
       </c>
@@ -8063,7 +7429,7 @@
       <c r="Z126" s="6"/>
       <c r="AA126" s="6"/>
     </row>
-    <row r="127" spans="1:27">
+    <row r="127" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <v>125</v>
       </c>
@@ -8108,7 +7474,7 @@
       <c r="Z127" s="6"/>
       <c r="AA127" s="6"/>
     </row>
-    <row r="128" spans="1:27">
+    <row r="128" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
         <v>126</v>
       </c>
@@ -8153,15 +7519,15 @@
       <c r="Z128" s="6"/>
       <c r="AA128" s="6"/>
     </row>
-    <row r="129" spans="1:27">
+    <row r="129" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
         <v>127</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D129" s="4">
         <v>50571</v>
@@ -8198,15 +7564,15 @@
       <c r="Z129" s="6"/>
       <c r="AA129" s="6"/>
     </row>
-    <row r="130" spans="1:27">
+    <row r="130" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
         <v>128</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D130" s="4">
         <v>51257</v>
@@ -8243,12 +7609,12 @@
       <c r="Z130" s="6"/>
       <c r="AA130" s="6"/>
     </row>
-    <row r="131" spans="1:27">
+    <row r="131" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
         <v>129</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>15</v>
@@ -8288,12 +7654,12 @@
       <c r="Z131" s="6"/>
       <c r="AA131" s="6"/>
     </row>
-    <row r="132" spans="1:27">
+    <row r="132" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
         <v>130</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>15</v>
@@ -8333,12 +7699,12 @@
       <c r="Z132" s="6"/>
       <c r="AA132" s="6"/>
     </row>
-    <row r="133" spans="1:27">
+    <row r="133" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
         <v>131</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>21</v>
@@ -8378,7 +7744,7 @@
       <c r="Z133" s="6"/>
       <c r="AA133" s="6"/>
     </row>
-    <row r="134" spans="1:27">
+    <row r="134" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
         <v>132</v>
       </c>
@@ -8423,7 +7789,7 @@
       <c r="Z134" s="6"/>
       <c r="AA134" s="6"/>
     </row>
-    <row r="135" spans="1:27">
+    <row r="135" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
         <v>133</v>
       </c>
@@ -8468,15 +7834,15 @@
       <c r="Z135" s="6"/>
       <c r="AA135" s="6"/>
     </row>
-    <row r="136" spans="1:27">
+    <row r="136" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
         <v>134</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D136" s="4">
         <v>1283</v>
@@ -8513,12 +7879,12 @@
       <c r="Z136" s="6"/>
       <c r="AA136" s="6"/>
     </row>
-    <row r="137" spans="1:27">
+    <row r="137" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
         <v>135</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>21</v>
@@ -8558,15 +7924,15 @@
       <c r="Z137" s="6"/>
       <c r="AA137" s="6"/>
     </row>
-    <row r="138" spans="1:27">
+    <row r="138" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
         <v>136</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D138" s="4">
         <v>29667</v>
@@ -8603,7 +7969,7 @@
       <c r="Z138" s="6"/>
       <c r="AA138" s="6"/>
     </row>
-    <row r="139" spans="1:27">
+    <row r="139" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
         <v>137</v>
       </c>
@@ -8648,7 +8014,7 @@
       <c r="Z139" s="6"/>
       <c r="AA139" s="6"/>
     </row>
-    <row r="140" spans="1:27">
+    <row r="140" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
         <v>138</v>
       </c>
@@ -8693,12 +8059,12 @@
       <c r="Z140" s="6"/>
       <c r="AA140" s="6"/>
     </row>
-    <row r="141" spans="1:27">
+    <row r="141" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
         <v>139</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>21</v>
@@ -8738,12 +8104,12 @@
       <c r="Z141" s="6"/>
       <c r="AA141" s="6"/>
     </row>
-    <row r="142" spans="1:27">
+    <row r="142" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
         <v>140</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>15</v>
@@ -8783,7 +8149,7 @@
       <c r="Z142" s="6"/>
       <c r="AA142" s="6"/>
     </row>
-    <row r="143" spans="1:27">
+    <row r="143" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
         <v>141</v>
       </c>
@@ -8828,7 +8194,7 @@
       <c r="Z143" s="6"/>
       <c r="AA143" s="6"/>
     </row>
-    <row r="144" spans="1:27">
+    <row r="144" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
         <v>142</v>
       </c>
@@ -8873,7 +8239,7 @@
       <c r="Z144" s="6"/>
       <c r="AA144" s="6"/>
     </row>
-    <row r="145" spans="1:27">
+    <row r="145" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
         <v>143</v>
       </c>
@@ -8918,7 +8284,7 @@
       <c r="Z145" s="6"/>
       <c r="AA145" s="6"/>
     </row>
-    <row r="146" spans="1:27">
+    <row r="146" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
         <v>144</v>
       </c>
@@ -8963,7 +8329,7 @@
       <c r="Z146" s="6"/>
       <c r="AA146" s="6"/>
     </row>
-    <row r="147" spans="1:27">
+    <row r="147" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
         <v>145</v>
       </c>
@@ -9008,7 +8374,7 @@
       <c r="Z147" s="6"/>
       <c r="AA147" s="6"/>
     </row>
-    <row r="148" spans="1:27">
+    <row r="148" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
         <v>146</v>
       </c>
@@ -9053,7 +8419,7 @@
       <c r="Z148" s="6"/>
       <c r="AA148" s="6"/>
     </row>
-    <row r="149" spans="1:27">
+    <row r="149" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
         <v>147</v>
       </c>
@@ -9098,7 +8464,7 @@
       <c r="Z149" s="6"/>
       <c r="AA149" s="6"/>
     </row>
-    <row r="150" spans="1:27">
+    <row r="150" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
         <v>148</v>
       </c>
@@ -9143,7 +8509,7 @@
       <c r="Z150" s="6"/>
       <c r="AA150" s="6"/>
     </row>
-    <row r="151" spans="1:27">
+    <row r="151" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
         <v>149</v>
       </c>
@@ -9188,7 +8554,7 @@
       <c r="Z151" s="6"/>
       <c r="AA151" s="6"/>
     </row>
-    <row r="152" spans="1:27">
+    <row r="152" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
         <v>150</v>
       </c>
@@ -9233,7 +8599,7 @@
       <c r="Z152" s="6"/>
       <c r="AA152" s="6"/>
     </row>
-    <row r="153" spans="1:27">
+    <row r="153" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
         <v>151</v>
       </c>
@@ -9278,7 +8644,7 @@
       <c r="Z153" s="6"/>
       <c r="AA153" s="6"/>
     </row>
-    <row r="154" spans="1:27">
+    <row r="154" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
         <v>152</v>
       </c>
@@ -9323,7 +8689,7 @@
       <c r="Z154" s="6"/>
       <c r="AA154" s="6"/>
     </row>
-    <row r="155" spans="1:27">
+    <row r="155" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
         <v>153</v>
       </c>
@@ -9368,7 +8734,7 @@
       <c r="Z155" s="6"/>
       <c r="AA155" s="6"/>
     </row>
-    <row r="156" spans="1:27">
+    <row r="156" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
         <v>154</v>
       </c>
@@ -9413,12 +8779,12 @@
       <c r="Z156" s="6"/>
       <c r="AA156" s="6"/>
     </row>
-    <row r="157" spans="1:27">
+    <row r="157" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
         <v>155</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C157" s="3" t="s">
         <v>21</v>
@@ -9458,7 +8824,7 @@
       <c r="Z157" s="6"/>
       <c r="AA157" s="6"/>
     </row>
-    <row r="158" spans="1:27">
+    <row r="158" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
         <v>156</v>
       </c>
@@ -9503,7 +8869,7 @@
       <c r="Z158" s="6"/>
       <c r="AA158" s="6"/>
     </row>
-    <row r="159" spans="1:27">
+    <row r="159" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
         <v>157</v>
       </c>
@@ -9548,7 +8914,7 @@
       <c r="Z159" s="6"/>
       <c r="AA159" s="6"/>
     </row>
-    <row r="160" spans="1:27">
+    <row r="160" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
         <v>158</v>
       </c>
@@ -9593,7 +8959,7 @@
       <c r="Z160" s="6"/>
       <c r="AA160" s="6"/>
     </row>
-    <row r="161" spans="1:27">
+    <row r="161" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
         <v>159</v>
       </c>
@@ -9638,12 +9004,12 @@
       <c r="Z161" s="6"/>
       <c r="AA161" s="6"/>
     </row>
-    <row r="162" spans="1:27">
+    <row r="162" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
         <v>160</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C162" s="3" t="s">
         <v>21</v>
@@ -9683,7 +9049,7 @@
       <c r="Z162" s="6"/>
       <c r="AA162" s="6"/>
     </row>
-    <row r="163" spans="1:27">
+    <row r="163" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
         <v>161</v>
       </c>
@@ -9728,7 +9094,7 @@
       <c r="Z163" s="6"/>
       <c r="AA163" s="6"/>
     </row>
-    <row r="164" spans="1:27">
+    <row r="164" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
         <v>162</v>
       </c>
@@ -9773,15 +9139,15 @@
       <c r="Z164" s="6"/>
       <c r="AA164" s="6"/>
     </row>
-    <row r="165" spans="1:27">
+    <row r="165" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
         <v>163</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D165" s="4">
         <v>9236</v>
@@ -9818,15 +9184,15 @@
       <c r="Z165" s="6"/>
       <c r="AA165" s="6"/>
     </row>
-    <row r="166" spans="1:27">
+    <row r="166" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
         <v>164</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D166" s="4">
         <v>31255</v>
@@ -9863,7 +9229,7 @@
       <c r="Z166" s="6"/>
       <c r="AA166" s="6"/>
     </row>
-    <row r="167" spans="1:27">
+    <row r="167" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
         <v>165</v>
       </c>
@@ -9908,7 +9274,7 @@
       <c r="Z167" s="6"/>
       <c r="AA167" s="6"/>
     </row>
-    <row r="168" spans="1:27">
+    <row r="168" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
         <v>166</v>
       </c>
@@ -9953,7 +9319,7 @@
       <c r="Z168" s="6"/>
       <c r="AA168" s="6"/>
     </row>
-    <row r="169" spans="1:27">
+    <row r="169" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
         <v>167</v>
       </c>
@@ -9998,15 +9364,15 @@
       <c r="Z169" s="6"/>
       <c r="AA169" s="6"/>
     </row>
-    <row r="170" spans="1:27">
+    <row r="170" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A170" s="4">
         <v>168</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D170" s="4">
         <v>38188</v>
@@ -10043,7 +9409,7 @@
       <c r="Z170" s="6"/>
       <c r="AA170" s="6"/>
     </row>
-    <row r="171" spans="1:27">
+    <row r="171" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A171" s="4">
         <v>169</v>
       </c>
@@ -10088,7 +9454,7 @@
       <c r="Z171" s="6"/>
       <c r="AA171" s="6"/>
     </row>
-    <row r="172" spans="1:27">
+    <row r="172" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
         <v>170</v>
       </c>
@@ -10133,7 +9499,7 @@
       <c r="Z172" s="6"/>
       <c r="AA172" s="6"/>
     </row>
-    <row r="173" spans="1:27">
+    <row r="173" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A173" s="4">
         <v>171</v>
       </c>
@@ -10178,7 +9544,7 @@
       <c r="Z173" s="6"/>
       <c r="AA173" s="6"/>
     </row>
-    <row r="174" spans="1:27">
+    <row r="174" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A174" s="4">
         <v>172</v>
       </c>
@@ -10223,7 +9589,7 @@
       <c r="Z174" s="6"/>
       <c r="AA174" s="6"/>
     </row>
-    <row r="175" spans="1:27">
+    <row r="175" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A175" s="4">
         <v>173</v>
       </c>
@@ -10268,7 +9634,7 @@
       <c r="Z175" s="6"/>
       <c r="AA175" s="6"/>
     </row>
-    <row r="176" spans="1:27">
+    <row r="176" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A176" s="4">
         <v>174</v>
       </c>
@@ -10313,7 +9679,7 @@
       <c r="Z176" s="6"/>
       <c r="AA176" s="6"/>
     </row>
-    <row r="177" spans="1:27">
+    <row r="177" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A177" s="4">
         <v>175</v>
       </c>
@@ -10358,15 +9724,15 @@
       <c r="Z177" s="6"/>
       <c r="AA177" s="6"/>
     </row>
-    <row r="178" spans="1:27">
+    <row r="178" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A178" s="4">
         <v>176</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C178" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D178" s="4">
         <v>36508</v>
@@ -10403,7 +9769,7 @@
       <c r="Z178" s="6"/>
       <c r="AA178" s="6"/>
     </row>
-    <row r="179" spans="1:27">
+    <row r="179" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A179" s="4">
         <v>177</v>
       </c>
@@ -10448,15 +9814,15 @@
       <c r="Z179" s="6"/>
       <c r="AA179" s="6"/>
     </row>
-    <row r="180" spans="1:27">
+    <row r="180" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A180" s="4">
         <v>178</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C180" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D180" s="4">
         <v>37144</v>
@@ -10493,15 +9859,15 @@
       <c r="Z180" s="6"/>
       <c r="AA180" s="6"/>
     </row>
-    <row r="181" spans="1:27">
+    <row r="181" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A181" s="4">
         <v>179</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C181" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D181" s="4">
         <v>19448</v>
@@ -10538,7 +9904,7 @@
       <c r="Z181" s="6"/>
       <c r="AA181" s="6"/>
     </row>
-    <row r="182" spans="1:27">
+    <row r="182" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A182" s="4">
         <v>180</v>
       </c>
@@ -10583,7 +9949,7 @@
       <c r="Z182" s="6"/>
       <c r="AA182" s="6"/>
     </row>
-    <row r="183" spans="1:27">
+    <row r="183" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A183" s="4">
         <v>181</v>
       </c>
@@ -10628,12 +9994,12 @@
       <c r="Z183" s="6"/>
       <c r="AA183" s="6"/>
     </row>
-    <row r="184" spans="1:27">
+    <row r="184" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A184" s="4">
         <v>182</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C184" s="3" t="s">
         <v>11</v>
@@ -10673,12 +10039,12 @@
       <c r="Z184" s="6"/>
       <c r="AA184" s="6"/>
     </row>
-    <row r="185" spans="1:27">
+    <row r="185" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A185" s="4">
         <v>183</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C185" s="3" t="s">
         <v>11</v>
@@ -10718,12 +10084,12 @@
       <c r="Z185" s="6"/>
       <c r="AA185" s="6"/>
     </row>
-    <row r="186" spans="1:27">
+    <row r="186" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A186" s="4">
         <v>184</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C186" s="3" t="s">
         <v>11</v>
@@ -10763,12 +10129,12 @@
       <c r="Z186" s="6"/>
       <c r="AA186" s="6"/>
     </row>
-    <row r="187" spans="1:27">
+    <row r="187" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A187" s="4">
         <v>185</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C187" s="3" t="s">
         <v>15</v>
@@ -10808,12 +10174,12 @@
       <c r="Z187" s="6"/>
       <c r="AA187" s="6"/>
     </row>
-    <row r="188" spans="1:27">
+    <row r="188" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A188" s="4">
         <v>186</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C188" s="3" t="s">
         <v>13</v>
@@ -10853,15 +10219,15 @@
       <c r="Z188" s="6"/>
       <c r="AA188" s="6"/>
     </row>
-    <row r="189" spans="1:27">
+    <row r="189" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A189" s="4">
         <v>187</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C189" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D189" s="4">
         <v>20624</v>
@@ -10898,15 +10264,15 @@
       <c r="Z189" s="6"/>
       <c r="AA189" s="6"/>
     </row>
-    <row r="190" spans="1:27">
+    <row r="190" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A190" s="4">
         <v>188</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C190" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D190" s="4">
         <v>19621</v>
@@ -10943,12 +10309,12 @@
       <c r="Z190" s="6"/>
       <c r="AA190" s="6"/>
     </row>
-    <row r="191" spans="1:27">
+    <row r="191" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A191" s="4">
         <v>189</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C191" s="3" t="s">
         <v>11</v>
@@ -10988,7 +10354,7 @@
       <c r="Z191" s="6"/>
       <c r="AA191" s="6"/>
     </row>
-    <row r="192" spans="1:27">
+    <row r="192" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A192" s="6"/>
       <c r="B192" s="6"/>
       <c r="C192" s="6"/>
@@ -11017,7 +10383,7 @@
       <c r="Z192" s="6"/>
       <c r="AA192" s="6"/>
     </row>
-    <row r="193" spans="1:27">
+    <row r="193" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A193" s="6"/>
       <c r="B193" s="6"/>
       <c r="C193" s="6"/>
@@ -11046,7 +10412,7 @@
       <c r="Z193" s="6"/>
       <c r="AA193" s="6"/>
     </row>
-    <row r="194" spans="1:27">
+    <row r="194" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A194" s="6"/>
       <c r="B194" s="6"/>
       <c r="C194" s="6"/>
@@ -11075,7 +10441,7 @@
       <c r="Z194" s="6"/>
       <c r="AA194" s="6"/>
     </row>
-    <row r="195" spans="1:27">
+    <row r="195" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A195" s="6"/>
       <c r="B195" s="6"/>
       <c r="C195" s="6"/>
@@ -11104,7 +10470,7 @@
       <c r="Z195" s="6"/>
       <c r="AA195" s="6"/>
     </row>
-    <row r="196" spans="1:27">
+    <row r="196" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A196" s="6"/>
       <c r="B196" s="6"/>
       <c r="C196" s="6"/>
@@ -11133,7 +10499,7 @@
       <c r="Z196" s="6"/>
       <c r="AA196" s="6"/>
     </row>
-    <row r="197" spans="1:27">
+    <row r="197" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A197" s="6"/>
       <c r="B197" s="6"/>
       <c r="C197" s="6"/>
@@ -11162,7 +10528,7 @@
       <c r="Z197" s="6"/>
       <c r="AA197" s="6"/>
     </row>
-    <row r="198" spans="1:27">
+    <row r="198" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A198" s="6"/>
       <c r="B198" s="6"/>
       <c r="C198" s="6"/>
@@ -11191,7 +10557,7 @@
       <c r="Z198" s="6"/>
       <c r="AA198" s="6"/>
     </row>
-    <row r="199" spans="1:27">
+    <row r="199" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A199" s="6"/>
       <c r="B199" s="6"/>
       <c r="C199" s="6"/>
@@ -11220,7 +10586,7 @@
       <c r="Z199" s="6"/>
       <c r="AA199" s="6"/>
     </row>
-    <row r="200" spans="1:27">
+    <row r="200" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A200" s="6"/>
       <c r="B200" s="6"/>
       <c r="C200" s="6"/>
@@ -11250,7 +10616,7 @@
       <c r="AA200" s="6"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>